--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2556101.247191159</v>
+        <v>2553602.995869951</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673445</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>152.6005339119013</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>195.2590144254325</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682479</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,19 +1607,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>307.2654071077722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>156.2526060290748</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1695,16 +1695,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933855</v>
       </c>
       <c r="G15" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,22 +1765,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124552</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773449</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848716</v>
+        <v>270.8701076848719</v>
       </c>
       <c r="D17" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345473</v>
       </c>
       <c r="E17" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861261</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555758</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673175</v>
+        <v>270.5718355797503</v>
       </c>
       <c r="H17" t="n">
-        <v>200.2049803011845</v>
+        <v>200.2049803011848</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770203991</v>
+        <v>14.78497770204015</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534845</v>
       </c>
       <c r="U17" t="n">
-        <v>110.6452818852002</v>
+        <v>156.5923878727663</v>
       </c>
       <c r="V17" t="n">
-        <v>233.349474383999</v>
+        <v>233.3494743839992</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8381846312771</v>
+        <v>254.8381846312773</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923331</v>
+        <v>275.3283165923334</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8351545699177</v>
+        <v>291.8351545699179</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580137</v>
+        <v>85.42919609580163</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249191</v>
+        <v>72.84403701249217</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207643</v>
+        <v>54.21268893207669</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043325</v>
+        <v>52.0311785604335</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679532</v>
+        <v>51.01826393679558</v>
       </c>
       <c r="G19" t="n">
-        <v>71.6230241728923</v>
+        <v>71.62302417289256</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818486</v>
+        <v>50.35223082818511</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702173</v>
+        <v>1.949636323702428</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530599</v>
+        <v>95.36624124530621</v>
       </c>
       <c r="T19" t="n">
-        <v>125.1461651900333</v>
+        <v>125.1461651900335</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8090541194769</v>
+        <v>191.8090541194772</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7348592376921</v>
+        <v>157.7348592376923</v>
       </c>
       <c r="W19" t="n">
-        <v>192.1202142504551</v>
+        <v>192.1202142504553</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029015</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.1818692659589</v>
+        <v>124.1818692659591</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773449</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848716</v>
+        <v>270.8701076848719</v>
       </c>
       <c r="D20" t="n">
-        <v>260.280257534547</v>
+        <v>214.333151546979</v>
       </c>
       <c r="E20" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861261</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555758</v>
       </c>
       <c r="G20" t="n">
-        <v>270.5718355797508</v>
+        <v>316.5189415673178</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011845</v>
+        <v>200.2049803011848</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770203991</v>
+        <v>14.78497770204012</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534845</v>
       </c>
       <c r="U20" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727663</v>
       </c>
       <c r="V20" t="n">
-        <v>233.349474383999</v>
+        <v>233.3494743839992</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312771</v>
+        <v>254.8381846312773</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923331</v>
+        <v>275.3283165923334</v>
       </c>
       <c r="Y20" t="n">
-        <v>291.8351545699177</v>
+        <v>291.8351545699179</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851181</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580137</v>
+        <v>85.42919609580161</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249191</v>
+        <v>72.84403701249215</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207643</v>
+        <v>54.21268893207667</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043325</v>
+        <v>52.03117856043349</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679532</v>
+        <v>51.01826393679556</v>
       </c>
       <c r="G22" t="n">
-        <v>71.6230241728923</v>
+        <v>71.62302417289254</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818486</v>
+        <v>50.3522308281851</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702173</v>
+        <v>1.9496363237024</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530599</v>
+        <v>95.36624124530621</v>
       </c>
       <c r="T22" t="n">
-        <v>125.1461651900333</v>
+        <v>125.1461651900335</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8090541194769</v>
+        <v>191.8090541194772</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7348592376921</v>
+        <v>157.7348592376923</v>
       </c>
       <c r="W22" t="n">
-        <v>192.1202142504551</v>
+        <v>192.1202142504553</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029015</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.1818692659589</v>
+        <v>124.1818692659591</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.3310575773446</v>
+        <v>288.3310575773449</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848715</v>
+        <v>270.8701076848719</v>
       </c>
       <c r="D23" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345473</v>
       </c>
       <c r="E23" t="n">
-        <v>287.5275859861258</v>
+        <v>287.5275859861261</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555758</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673175</v>
+        <v>316.5189415673178</v>
       </c>
       <c r="H23" t="n">
-        <v>154.2578743136177</v>
+        <v>200.2049803011848</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770203985</v>
+        <v>14.78497770204017</v>
       </c>
       <c r="T23" t="n">
-        <v>109.5151860534842</v>
+        <v>63.56808006591225</v>
       </c>
       <c r="U23" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727663</v>
       </c>
       <c r="V23" t="n">
-        <v>233.3494743839989</v>
+        <v>233.3494743839992</v>
       </c>
       <c r="W23" t="n">
-        <v>254.838184631277</v>
+        <v>254.8381846312773</v>
       </c>
       <c r="X23" t="n">
-        <v>275.3283165923331</v>
+        <v>275.3283165923334</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8351545699176</v>
+        <v>291.8351545699179</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.4291960958013</v>
+        <v>85.42919609580161</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249184</v>
+        <v>72.84403701249215</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207636</v>
+        <v>54.21268893207667</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043318</v>
+        <v>52.03117856043349</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679525</v>
+        <v>51.01826393679556</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289223</v>
+        <v>71.62302417289254</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818479</v>
+        <v>50.3522308281851</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702116</v>
+        <v>1.949636323702428</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.3662412453059</v>
+        <v>95.36624124530621</v>
       </c>
       <c r="T25" t="n">
-        <v>125.1461651900332</v>
+        <v>125.1461651900335</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8090541194769</v>
+        <v>191.8090541194772</v>
       </c>
       <c r="V25" t="n">
-        <v>157.734859237692</v>
+        <v>157.7348592376923</v>
       </c>
       <c r="W25" t="n">
-        <v>192.120214250455</v>
+        <v>192.1202142504553</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029015</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.1818692659588</v>
+        <v>124.1818692659591</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959373</v>
+        <v>335.3061941959375</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034643</v>
+        <v>317.8452443034644</v>
       </c>
       <c r="D26" t="n">
-        <v>307.2553941531397</v>
+        <v>307.2553941531398</v>
       </c>
       <c r="E26" t="n">
-        <v>334.5027226047185</v>
+        <v>292.0174483562877</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4483982741681</v>
+        <v>359.4483982741683</v>
       </c>
       <c r="G26" t="n">
-        <v>143.7871950319958</v>
+        <v>363.4940781859103</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197772</v>
+        <v>247.1801169197773</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063257</v>
+        <v>61.76011432063275</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4903226720769</v>
+        <v>156.4903226720771</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>203.5675244913589</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.3246110025918</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8133212498697</v>
+        <v>301.8133212498699</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109257</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.404332714394</v>
+        <v>132.4043327143942</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8191736310846</v>
+        <v>119.8191736310847</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1878255506691</v>
+        <v>101.1878255506692</v>
       </c>
       <c r="E28" t="n">
-        <v>99.0063151790259</v>
+        <v>99.00631517902606</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538798</v>
+        <v>97.99340055538813</v>
       </c>
       <c r="G28" t="n">
-        <v>118.598160791485</v>
+        <v>118.5981607914851</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677752</v>
+        <v>97.32736744677767</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229484</v>
+        <v>48.924772942295</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250408</v>
+        <v>41.50450520250422</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638986</v>
+        <v>142.3413778638988</v>
       </c>
       <c r="T28" t="n">
-        <v>172.1213018086259</v>
+        <v>172.1213018086261</v>
       </c>
       <c r="U28" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380697</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562847</v>
+        <v>204.7099958562849</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690477</v>
+        <v>239.0953508690479</v>
       </c>
       <c r="X28" t="n">
-        <v>178.2820079214939</v>
+        <v>178.282007921494</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845515</v>
+        <v>171.1570058845517</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2795,19 @@
         <v>317.8452443034643</v>
       </c>
       <c r="D29" t="n">
-        <v>244.2799879436554</v>
+        <v>307.2553941531397</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047185</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.4483982741681</v>
+        <v>359.4483982741682</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859102</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197772</v>
+        <v>241.5778990625398</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063257</v>
+        <v>61.7601143206326</v>
       </c>
       <c r="T29" t="n">
         <v>156.4903226720769</v>
@@ -2849,16 +2849,16 @@
         <v>203.5675244913587</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025916</v>
+        <v>280.3246110025917</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>301.8133212498698</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109257</v>
+        <v>322.3034532109258</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>338.8102911885103</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.404332714394</v>
+        <v>132.4043327143941</v>
       </c>
       <c r="C31" t="n">
         <v>119.8191736310846</v>
@@ -2956,19 +2956,19 @@
         <v>101.1878255506691</v>
       </c>
       <c r="E31" t="n">
-        <v>99.0063151790259</v>
+        <v>99.00631517902592</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538798</v>
+        <v>97.99340055538799</v>
       </c>
       <c r="G31" t="n">
         <v>118.598160791485</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677752</v>
+        <v>97.32736744677753</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229484</v>
+        <v>48.92477294229486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250408</v>
+        <v>41.50450520250411</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3413778638986</v>
+        <v>142.3413778638987</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1213018086259</v>
+        <v>172.121301808626</v>
       </c>
       <c r="U31" t="n">
         <v>238.7841907380696</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7099958562847</v>
+        <v>204.7099958562848</v>
       </c>
       <c r="W31" t="n">
-        <v>239.0953508690477</v>
+        <v>239.0953508690478</v>
       </c>
       <c r="X31" t="n">
         <v>178.2820079214939</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1570058845515</v>
+        <v>171.1570058845516</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C32" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D32" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F32" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H32" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007087</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U32" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V32" t="n">
         <v>230.0675382420299</v>
@@ -3095,7 +3095,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482627</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H34" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U34" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V34" t="n">
         <v>154.452923095723</v>
@@ -3250,10 +3250,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X34" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y34" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H35" t="n">
         <v>196.9230441592154</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
         <v>230.0675382420299</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775078</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592158</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
         <v>230.0675382420299</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,10 +3724,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.9983213925779</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007073</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T41" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307968</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
         <v>230.0675382420298</v>
@@ -3834,7 +3834,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247745</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383218</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052271</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010723</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846405</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482612</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309231</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621566</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333679</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957229</v>
@@ -3961,7 +3961,7 @@
         <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239897</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007073</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307968</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4104,7 +4104,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383218</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052271</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010723</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846405</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482612</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309231</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621566</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333679</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1644.057218491953</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>3104.236671416635</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V11" t="n">
-        <v>2820.623417021138</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W11" t="n">
-        <v>2515.304394699097</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.304394699097</v>
+        <v>1983.207425608002</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.614695671359</v>
+        <v>1983.207425608002</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5179,31 +5179,31 @@
         <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998339</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.388160665765</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5212,10 +5212,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1654.93647038346</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.423586391121</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="D14" t="n">
-        <v>1022.607520732444</v>
+        <v>990.5514538055361</v>
       </c>
       <c r="E14" t="n">
-        <v>684.268901082273</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912085</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>2946.40575623575</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V14" t="n">
-        <v>2662.792501840253</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W14" t="n">
-        <v>2662.792501840253</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X14" t="n">
-        <v>2336.776376527247</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y14" t="n">
-        <v>1994.086677499508</v>
+        <v>1640.517726580263</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.849232726879</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998342</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105847</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994995</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949998</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827668</v>
+        <v>857.6738109135069</v>
       </c>
       <c r="F17" t="n">
-        <v>588.4554718549127</v>
+        <v>542.0442536856526</v>
       </c>
       <c r="G17" t="n">
-        <v>268.7393692616628</v>
+        <v>268.7393692616631</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5537,28 +5537,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.67150069802</v>
+        <v>3310.671500698021</v>
       </c>
       <c r="T17" t="n">
-        <v>3200.050100643995</v>
+        <v>3200.050100643996</v>
       </c>
       <c r="U17" t="n">
-        <v>3088.287189648844</v>
+        <v>3041.875971479586</v>
       </c>
       <c r="V17" t="n">
-        <v>2852.580649867026</v>
+        <v>2806.169431697768</v>
       </c>
       <c r="W17" t="n">
-        <v>2595.168342158666</v>
+        <v>2548.757123989408</v>
       </c>
       <c r="X17" t="n">
-        <v>2317.058931459339</v>
+        <v>2270.647713290081</v>
       </c>
       <c r="Y17" t="n">
-        <v>2022.275947045281</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>85.51940803064633</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095332</v>
+        <v>424.119247509535</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433798</v>
+        <v>350.5394121433813</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927975</v>
+        <v>295.7791202927988</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721579</v>
+        <v>243.2223742721589</v>
       </c>
       <c r="F19" t="n">
-        <v>191.688774336001</v>
+        <v>191.6887743360018</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724734</v>
+        <v>119.3422852724739</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208462</v>
+        <v>68.48144605208489</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148975</v>
+        <v>171.7936262148972</v>
       </c>
       <c r="K19" t="n">
-        <v>321.405098698952</v>
+        <v>363.5632367278419</v>
       </c>
       <c r="L19" t="n">
-        <v>570.5736988665838</v>
+        <v>612.7318368954734</v>
       </c>
       <c r="M19" t="n">
-        <v>831.4649364110561</v>
+        <v>780.1643181946712</v>
       </c>
       <c r="N19" t="n">
-        <v>1096.232529686178</v>
+        <v>1044.931911469793</v>
       </c>
       <c r="O19" t="n">
-        <v>1327.609635149642</v>
+        <v>1234.150878904372</v>
       </c>
       <c r="P19" t="n">
-        <v>1426.560637902401</v>
+        <v>1426.560637902405</v>
       </c>
       <c r="Q19" t="n">
-        <v>1532.940161506216</v>
+        <v>1532.94016150622</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608148</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996724</v>
+        <v>1442.026549996727</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128007</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815404</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712671</v>
+        <v>962.54162217127</v>
       </c>
       <c r="W19" t="n">
-        <v>768.48079969606</v>
+        <v>768.4807996960626</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597961</v>
+        <v>635.8475963597984</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780194</v>
+        <v>510.4113647780215</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1684.621236373654</v>
+        <v>1684.621236373653</v>
       </c>
       <c r="C20" t="n">
         <v>1411.015066994995</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.105715949998</v>
+        <v>1194.516934119259</v>
       </c>
       <c r="E20" t="n">
-        <v>857.6738109135076</v>
+        <v>904.0850290827675</v>
       </c>
       <c r="F20" t="n">
-        <v>542.0442536856535</v>
+        <v>588.4554718549132</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616628</v>
+        <v>268.739369261663</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.671500698021</v>
       </c>
       <c r="T20" t="n">
-        <v>3200.050100643994</v>
+        <v>3200.050100643996</v>
       </c>
       <c r="U20" t="n">
-        <v>3041.875971479584</v>
+        <v>3041.875971479586</v>
       </c>
       <c r="V20" t="n">
-        <v>2806.169431697767</v>
+        <v>2806.169431697768</v>
       </c>
       <c r="W20" t="n">
-        <v>2548.757123989406</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X20" t="n">
         <v>2270.64771329008</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095332</v>
+        <v>424.1192475095349</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433798</v>
+        <v>350.5394121433812</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927975</v>
+        <v>295.7791202927987</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721579</v>
+        <v>243.2223742721588</v>
       </c>
       <c r="F22" t="n">
-        <v>191.688774336001</v>
+        <v>191.6887743360017</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724734</v>
+        <v>119.3422852724739</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208461</v>
+        <v>68.48144605208486</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7936262148974</v>
+        <v>171.7936262148972</v>
       </c>
       <c r="K22" t="n">
-        <v>321.4050986989519</v>
+        <v>363.563236727842</v>
       </c>
       <c r="L22" t="n">
-        <v>570.5736988665836</v>
+        <v>612.7318368954736</v>
       </c>
       <c r="M22" t="n">
-        <v>831.464936411056</v>
+        <v>873.6230744399459</v>
       </c>
       <c r="N22" t="n">
-        <v>1002.773773440903</v>
+        <v>1096.232529686182</v>
       </c>
       <c r="O22" t="n">
-        <v>1234.150878904368</v>
+        <v>1327.609635149646</v>
       </c>
       <c r="P22" t="n">
-        <v>1426.560637902401</v>
+        <v>1426.560637902405</v>
       </c>
       <c r="Q22" t="n">
-        <v>1532.940161506216</v>
+        <v>1532.94016150622</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608148</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996724</v>
+        <v>1442.026549996727</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128007</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815404</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712671</v>
+        <v>962.5416221712699</v>
       </c>
       <c r="W22" t="n">
-        <v>768.48079969606</v>
+        <v>768.4807996960625</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597961</v>
+        <v>635.8475963597983</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780194</v>
+        <v>510.4113647780214</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1684.621236373654</v>
+        <v>1731.032454542916</v>
       </c>
       <c r="C23" t="n">
-        <v>1411.015066994996</v>
+        <v>1457.426285164257</v>
       </c>
       <c r="D23" t="n">
-        <v>1148.105715949999</v>
+        <v>1194.51693411926</v>
       </c>
       <c r="E23" t="n">
-        <v>857.6738109135085</v>
+        <v>904.0850290827688</v>
       </c>
       <c r="F23" t="n">
-        <v>542.0442536856544</v>
+        <v>588.4554718549144</v>
       </c>
       <c r="G23" t="n">
-        <v>222.3281510924033</v>
+        <v>268.739369261663</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,40 +5999,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.671500698018</v>
       </c>
       <c r="T23" t="n">
-        <v>3200.050100643994</v>
+        <v>3246.461318813258</v>
       </c>
       <c r="U23" t="n">
-        <v>3041.875971479584</v>
+        <v>3088.287189648848</v>
       </c>
       <c r="V23" t="n">
-        <v>2806.169431697767</v>
+        <v>2852.58064986703</v>
       </c>
       <c r="W23" t="n">
-        <v>2548.757123989407</v>
+        <v>2595.168342158669</v>
       </c>
       <c r="X23" t="n">
-        <v>2270.647713290081</v>
+        <v>2317.058931459343</v>
       </c>
       <c r="Y23" t="n">
-        <v>1975.864728876023</v>
+        <v>2022.275947045284</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095327</v>
+        <v>424.1192475095349</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433793</v>
+        <v>350.5394121433812</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927971</v>
+        <v>295.7791202927987</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721575</v>
+        <v>243.2223742721588</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360007</v>
+        <v>191.6887743360016</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724732</v>
+        <v>119.3422852724738</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208454</v>
+        <v>68.48144605208483</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>171.7936262148975</v>
+        <v>171.7936262148971</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5632367278424</v>
+        <v>321.4050986989573</v>
       </c>
       <c r="L25" t="n">
-        <v>612.7318368954743</v>
+        <v>570.5736988665889</v>
       </c>
       <c r="M25" t="n">
-        <v>836.8808615129824</v>
+        <v>738.0061801657866</v>
       </c>
       <c r="N25" t="n">
-        <v>1101.648454788105</v>
+        <v>1002.773773440908</v>
       </c>
       <c r="O25" t="n">
-        <v>1333.025560251569</v>
+        <v>1234.150878904372</v>
       </c>
       <c r="P25" t="n">
-        <v>1431.976563004328</v>
+        <v>1426.560637902405</v>
       </c>
       <c r="Q25" t="n">
-        <v>1538.356086608143</v>
+        <v>1532.94016150622</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608143</v>
+        <v>1538.356086608148</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996723</v>
+        <v>1442.026549996727</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128002</v>
+        <v>1315.616282128007</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815403</v>
       </c>
       <c r="V25" t="n">
-        <v>962.5416221712662</v>
+        <v>962.5416221712698</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960592</v>
+        <v>768.4807996960624</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597954</v>
+        <v>635.8475963597982</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780188</v>
+        <v>510.4113647780214</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1793.80410763144</v>
+        <v>1972.815833798596</v>
       </c>
       <c r="C26" t="n">
-        <v>1472.748305304709</v>
+        <v>1651.760031471864</v>
       </c>
       <c r="D26" t="n">
-        <v>1162.389321311638</v>
+        <v>1341.401047478793</v>
       </c>
       <c r="E26" t="n">
-        <v>824.5077833270742</v>
+        <v>1046.433927926988</v>
       </c>
       <c r="F26" t="n">
-        <v>461.4285931511467</v>
+        <v>683.3547377510599</v>
       </c>
       <c r="G26" t="n">
-        <v>316.1890022097361</v>
+        <v>316.1890022097363</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6245,31 +6245,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S26" t="n">
-        <v>3263.221867749945</v>
+        <v>3263.221867749944</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.150834747848</v>
+        <v>3105.150834747846</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.150834747848</v>
+        <v>2899.527072635362</v>
       </c>
       <c r="V26" t="n">
-        <v>3105.150834747848</v>
+        <v>2616.370899905472</v>
       </c>
       <c r="W26" t="n">
-        <v>2800.288894091414</v>
+        <v>2311.508959249038</v>
       </c>
       <c r="X26" t="n">
-        <v>2474.729850444014</v>
+        <v>2311.508959249038</v>
       </c>
       <c r="Y26" t="n">
-        <v>2132.497233081882</v>
+        <v>2311.508959249038</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
         <v>1109.759191501176</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.266678146047</v>
+        <v>756.2666781460481</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318201</v>
+        <v>635.2372098318211</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331645</v>
+        <v>533.0272850331653</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644514</v>
+        <v>433.020906064452</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802211</v>
+        <v>334.0376731802216</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686202</v>
+        <v>214.2415511686204</v>
       </c>
       <c r="H28" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001581</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719868</v>
+        <v>158.5881198719866</v>
       </c>
       <c r="K28" t="n">
-        <v>409.528673813731</v>
+        <v>398.6314812403368</v>
       </c>
       <c r="L28" t="n">
-        <v>773.0418432550948</v>
+        <v>762.1446506817006</v>
       </c>
       <c r="M28" t="n">
-        <v>1164.152259847512</v>
+        <v>1153.255067274117</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972846</v>
+        <v>1541.61681497285</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.899784886127</v>
+        <v>1887.899784886131</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312654</v>
+        <v>2167.460656312658</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458037</v>
+        <v>2292.02432345804</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829245</v>
+        <v>2250.100580829248</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269751</v>
+        <v>2106.321411269754</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452958</v>
+        <v>1932.46151045296</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192281</v>
+        <v>1691.265358192283</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600074</v>
+        <v>1484.487584600076</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176795</v>
       </c>
       <c r="X28" t="n">
-        <v>1062.894292892457</v>
+        <v>1062.894292892458</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626065</v>
+        <v>890.0084283626079</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1952.118730807631</v>
+        <v>1305.024172789065</v>
       </c>
       <c r="C29" t="n">
-        <v>1631.0629284809</v>
+        <v>983.9683704623335</v>
       </c>
       <c r="D29" t="n">
-        <v>1384.315465911551</v>
+        <v>673.609386469263</v>
       </c>
       <c r="E29" t="n">
-        <v>1046.433927926987</v>
+        <v>673.609386469263</v>
       </c>
       <c r="F29" t="n">
-        <v>683.3547377510595</v>
+        <v>310.5301962933355</v>
       </c>
       <c r="G29" t="n">
-        <v>316.1890022097361</v>
+        <v>310.5301962933355</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218281</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912082</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810546</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S29" t="n">
         <v>3263.221867749945</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.150834747848</v>
+        <v>3105.150834747847</v>
       </c>
       <c r="U29" t="n">
         <v>2899.527072635363</v>
       </c>
       <c r="V29" t="n">
-        <v>2616.370899905473</v>
+        <v>2616.370899905472</v>
       </c>
       <c r="W29" t="n">
-        <v>2616.370899905473</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X29" t="n">
-        <v>2290.811856258073</v>
+        <v>1985.949915601639</v>
       </c>
       <c r="Y29" t="n">
-        <v>2290.811856258073</v>
+        <v>1643.717298239507</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6616,16 +6616,16 @@
         <v>115.931079000158</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719868</v>
+        <v>158.5881198719867</v>
       </c>
       <c r="K31" t="n">
-        <v>409.528673813731</v>
+        <v>409.5286738137308</v>
       </c>
       <c r="L31" t="n">
-        <v>762.1446506816968</v>
+        <v>762.1446506816973</v>
       </c>
       <c r="M31" t="n">
         <v>1153.255067274114</v>
@@ -6664,7 +6664,7 @@
         <v>1062.894292892457</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626065</v>
+        <v>890.0084283626067</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>1711.141932470373</v>
       </c>
       <c r="C32" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D32" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E32" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F32" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218281</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912082</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810546</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T32" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U32" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V32" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W32" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X32" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y32" t="n">
         <v>1999.070337960651</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6804,25 +6804,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170922</v>
+        <v>402.2593958170918</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630287</v>
+        <v>331.9946474630284</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G34" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>67.83109325226761</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>176.361719815531</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K34" t="n">
-        <v>371.3804471090252</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L34" t="n">
-        <v>527.0902910313824</v>
+        <v>622.4791872371223</v>
       </c>
       <c r="M34" t="n">
-        <v>791.2306453564041</v>
+        <v>789.9116685363201</v>
       </c>
       <c r="N34" t="n">
-        <v>962.5394823862516</v>
+        <v>961.2205055661676</v>
       </c>
       <c r="O34" t="n">
-        <v>1197.165704630265</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P34" t="n">
-        <v>1371.681856552142</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q34" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S34" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T34" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304657</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673485</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431747</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734885</v>
+        <v>485.2364260734881</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464967</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,16 +6947,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
@@ -7008,10 +7008,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170918</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630284</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159866</v>
@@ -7087,28 +7087,28 @@
         <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226764</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>176.361719815531</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090253</v>
+        <v>262.1948921089714</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572066</v>
+        <v>514.6126090571527</v>
       </c>
       <c r="M37" t="n">
-        <v>887.9385183822283</v>
+        <v>778.7529633821744</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.247355412076</v>
+        <v>1046.769673437846</v>
       </c>
       <c r="O37" t="n">
-        <v>1197.165704630265</v>
+        <v>1281.395895681859</v>
       </c>
       <c r="P37" t="n">
         <v>1380.346898434618</v>
@@ -7120,7 +7120,7 @@
         <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363022</v>
@@ -7129,16 +7129,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304657</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673485</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431747</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734881</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,67 +7157,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495731</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170918</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630284</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226761</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>176.3617198155309</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K40" t="n">
-        <v>274.6725740832013</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L40" t="n">
-        <v>527.0902910313823</v>
+        <v>514.6126090571526</v>
       </c>
       <c r="M40" t="n">
-        <v>694.5227723305801</v>
+        <v>682.0450903563503</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862514</v>
+        <v>950.0618004120217</v>
       </c>
       <c r="O40" t="n">
-        <v>1197.165704630265</v>
+        <v>1184.688022656035</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.346898434619</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304657</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673485</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431747</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734881</v>
       </c>
     </row>
     <row r="41">
@@ -7394,67 +7394,67 @@
         <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329462</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668172</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515852</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746125</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049855</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362618</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
         <v>765.151745215813</v>
@@ -7512,25 +7512,25 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.759191501176</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170913</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C43" t="n">
-        <v>331.994647463028</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245359</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159863</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919195</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
-        <v>114.057868640482</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226771</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970713</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K43" t="n">
-        <v>274.6725740832015</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L43" t="n">
-        <v>527.0902910313828</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214996957</v>
+        <v>789.9116685363202</v>
       </c>
       <c r="N43" t="n">
-        <v>1038.104631555367</v>
+        <v>1038.104631555368</v>
       </c>
       <c r="O43" t="n">
-        <v>1272.730853799381</v>
+        <v>1272.730853799382</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552139</v>
+        <v>1468.389729577964</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936504</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818981</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219651</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062508</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304648</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673477</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X43" t="n">
-        <v>607.357570643174</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734875</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464961</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307323</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362618</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7752,25 +7752,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170913</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.994647463028</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245359</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159863</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919195</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.057868640482</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962282</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K46" t="n">
-        <v>273.3535972631172</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L46" t="n">
-        <v>525.7713142112984</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996957</v>
+        <v>866.795794525523</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.104631555367</v>
+        <v>1134.812504581194</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799381</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552139</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936504</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818981</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219651</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062508</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304648</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673477</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>607.357570643174</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734875</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -9094,7 +9094,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444609</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>95.73650111900227</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10042,7 +10042,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>160.8104516188071</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10273,7 +10273,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>151.4674363158998</v>
+        <v>151.4674363159004</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183.1581711329866</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>123.0387407269825</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.689826345897</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>47.76742931123454</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.94710598756751</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>45.94710598756584</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>45.94710598756828</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>45.94710598756672</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>45.94710598756682</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>45.94710598757224</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24449,13 +24449,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>42.48527424843094</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>219.7068831539144</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913587</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025916</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.3034532109259</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>338.8102911885105</v>
       </c>
     </row>
     <row r="27">
@@ -24683,19 +24683,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>62.97540620948422</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.5027226047185</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.4940781859102</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.602217857237378</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24740,13 +24740,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8133212498697</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703326.5080261665</v>
+        <v>703326.5080261666</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703326.5080261665</v>
+        <v>703326.5080261664</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>735645.942204906</v>
+        <v>735645.9422049059</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>735645.9422049059</v>
+        <v>735645.9422049056</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703615.2493288452</v>
+        <v>703615.2493288449</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>703615.2493288452</v>
+        <v>703615.2493288451</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>696384.8879094826</v>
       </c>
       <c r="C2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094828</v>
       </c>
       <c r="D2" t="n">
-        <v>696387.904187395</v>
+        <v>696387.9041873956</v>
       </c>
       <c r="E2" t="n">
-        <v>649851.3584063664</v>
+        <v>649851.3584063669</v>
       </c>
       <c r="F2" t="n">
-        <v>649851.358406366</v>
+        <v>649851.3584063668</v>
       </c>
       <c r="G2" t="n">
-        <v>694776.7231935218</v>
+        <v>694776.7231935216</v>
       </c>
       <c r="H2" t="n">
-        <v>694776.7231935221</v>
+        <v>694776.7231935217</v>
       </c>
       <c r="I2" t="n">
-        <v>694776.7231935218</v>
+        <v>694776.7231935216</v>
       </c>
       <c r="J2" t="n">
+        <v>650279.9947829264</v>
+      </c>
+      <c r="K2" t="n">
         <v>650279.9947829262</v>
       </c>
-      <c r="K2" t="n">
-        <v>650279.9947829264</v>
-      </c>
       <c r="L2" t="n">
-        <v>697885.5043846419</v>
+        <v>697885.5043846418</v>
       </c>
       <c r="M2" t="n">
         <v>697885.504384642</v>
       </c>
       <c r="N2" t="n">
+        <v>697885.5043846419</v>
+      </c>
+      <c r="O2" t="n">
+        <v>697885.5043846417</v>
+      </c>
+      <c r="P2" t="n">
         <v>697885.5043846421</v>
-      </c>
-      <c r="O2" t="n">
-        <v>697885.5043846419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>697885.5043846418</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971249651</v>
+        <v>9496.994971250684</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265977</v>
+        <v>1152439.021265976</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403484</v>
+        <v>37942.11797403414</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.029028291148799e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248403</v>
+        <v>78147.77618248394</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586374</v>
+        <v>463750.8212586369</v>
       </c>
       <c r="E4" t="n">
-        <v>63095.10913369704</v>
+        <v>63095.10913369693</v>
       </c>
       <c r="F4" t="n">
-        <v>63095.10913369705</v>
+        <v>63095.10913369694</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.70120662285</v>
+        <v>91701.70120662269</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.70120662285</v>
+        <v>91701.70120662267</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662292</v>
+        <v>91701.7012066227</v>
       </c>
       <c r="J4" t="n">
-        <v>63366.32784492838</v>
+        <v>63366.32784492827</v>
       </c>
       <c r="K4" t="n">
-        <v>63366.32784492841</v>
+        <v>63366.32784492836</v>
       </c>
       <c r="L4" t="n">
-        <v>93774.13782657705</v>
+        <v>93774.13782657709</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657709</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657711</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657712</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657712</v>
+        <v>93774.13782657702</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.3458032835</v>
+        <v>33869.34580328353</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178179</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178179</v>
       </c>
       <c r="G5" t="n">
         <v>82242.68821673066</v>
@@ -26488,25 +26488,25 @@
         <v>82242.68821673066</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.6882167306</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.53545634216</v>
       </c>
       <c r="K5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.53545634216</v>
       </c>
       <c r="L5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624985</v>
-      </c>
       <c r="O5" t="n">
-        <v>82518.59730624982</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195141.3279777514</v>
+        <v>195136.9143998832</v>
       </c>
       <c r="C6" t="n">
-        <v>195141.3279777514</v>
+        <v>195136.9143998835</v>
       </c>
       <c r="D6" t="n">
-        <v>189270.7421542245</v>
+        <v>189266.337447762</v>
       </c>
       <c r="E6" t="n">
-        <v>-643938.2653150894</v>
+        <v>-644079.5422150242</v>
       </c>
       <c r="F6" t="n">
-        <v>508500.7559508875</v>
+        <v>508359.479050952</v>
       </c>
       <c r="G6" t="n">
-        <v>482890.2157961334</v>
+        <v>482881.0723220426</v>
       </c>
       <c r="H6" t="n">
-        <v>520832.3337701685</v>
+        <v>520823.1902960768</v>
       </c>
       <c r="I6" t="n">
-        <v>520832.3337701684</v>
+        <v>520823.1902960773</v>
       </c>
       <c r="J6" t="n">
-        <v>508620.1314816558</v>
+        <v>508480.1152769451</v>
       </c>
       <c r="K6" t="n">
-        <v>508620.1314816559</v>
+        <v>508480.1152769446</v>
       </c>
       <c r="L6" t="n">
         <v>443444.993069331</v>
       </c>
       <c r="M6" t="n">
-        <v>314404.2009597421</v>
+        <v>314404.200959742</v>
       </c>
       <c r="N6" t="n">
+        <v>521592.769251815</v>
+      </c>
+      <c r="O6" t="n">
+        <v>521592.7692518146</v>
+      </c>
+      <c r="P6" t="n">
         <v>521592.7692518152</v>
-      </c>
-      <c r="O6" t="n">
-        <v>521592.769251815</v>
-      </c>
-      <c r="P6" t="n">
-        <v>521592.7692518149</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135359</v>
+        <v>11.08925703135479</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022921</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022923</v>
       </c>
     </row>
   </sheetData>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754333</v>
+        <v>47.42764746754312</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135359</v>
+        <v>11.08925703135479</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561945</v>
+        <v>1078.687443561944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>-2.516603294877312e-13</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>-7.971344655321386e-14</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754333</v>
+        <v>47.42764746754312</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305517</v>
+        <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052752</v>
+        <v>208.757221905275</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826065</v>
+        <v>177.2622388826061</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586407</v>
+        <v>214.4191170586401</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193326</v>
+        <v>228.7313680193319</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862409</v>
+        <v>222.5183879862401</v>
       </c>
       <c r="N8" t="n">
-        <v>221.458555635799</v>
+        <v>221.4585556357981</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176004</v>
+        <v>222.5869951175996</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178628</v>
+        <v>224.8223464178621</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592000994</v>
+        <v>217.4915592000989</v>
       </c>
       <c r="R8" t="n">
-        <v>212.785193926712</v>
+        <v>212.7851939267117</v>
       </c>
       <c r="S8" t="n">
-        <v>208.0042044823178</v>
+        <v>208.0042044823177</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27950,34 +27950,34 @@
         <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588561</v>
+        <v>98.70114728588551</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297574</v>
+        <v>124.5841013297571</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373463</v>
+        <v>133.9898052373459</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993349</v>
+        <v>133.3753828993344</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399306</v>
+        <v>136.0903888399299</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993499</v>
+        <v>125.1381096993493</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352007</v>
+        <v>136.9211602352001</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121503</v>
+        <v>129.4196520121498</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214884</v>
+        <v>136.937040721488</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721164</v>
+        <v>144.1985650721162</v>
       </c>
       <c r="S9" t="n">
         <v>171.2401239007455</v>
@@ -28026,40 +28026,40 @@
         <v>167.9709823375825</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0493808127402</v>
+        <v>162.0493808127401</v>
       </c>
       <c r="I10" t="n">
         <v>154.8491099721809</v>
       </c>
       <c r="J10" t="n">
-        <v>125.581632063448</v>
+        <v>125.5816320634478</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269174</v>
+        <v>126.6899679269171</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502423</v>
+        <v>131.911664650242</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297095</v>
+        <v>135.7911600297091</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978762</v>
+        <v>124.6254548978759</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465397</v>
+        <v>135.6300504465394</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697193</v>
+        <v>135.309455269719</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177115</v>
+        <v>149.8305238177113</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021355</v>
+        <v>176.3942526021354</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004296</v>
+        <v>223.6681045004295</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="K19" t="n">
-        <v>51.8188062791759</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613592</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613592</v>
+        <v>51.81880627918139</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="R19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613567</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-6.679101716144942e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="J22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="K22" t="n">
-        <v>51.81880627917579</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>51.81880627918062</v>
       </c>
       <c r="O22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="P22" t="n">
-        <v>94.40278408613592</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="R22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613568</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613599</v>
+        <v>51.8188062791817</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="M25" t="n">
-        <v>57.28943769526296</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613599</v>
+        <v>94.40278408613568</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29314,7 +29314,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754311</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29545,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
     </row>
     <row r="30">
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754325</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29773,7 +29773,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68472022810498</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="M34" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="P34" t="n">
-        <v>76.32843350415962</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.68472022810498</v>
+        <v>86.41330088048274</v>
       </c>
       <c r="R34" t="n">
-        <v>97.68472022810498</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="36">
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810502</v>
+        <v>86.41330088048309</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="P37" t="n">
-        <v>85.08100106221673</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="R37" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810496</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810496</v>
+        <v>86.41330088048304</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="P40" t="n">
-        <v>85.08100106221764</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="R40" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810512</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M43" t="n">
-        <v>76.32843350415669</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810512</v>
+        <v>77.66073332242442</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810512</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M46" t="n">
-        <v>77.66073332242371</v>
+        <v>77.66073332242738</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810512</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810512</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776423549</v>
+        <v>0.04457992776424034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852154769</v>
+        <v>0.4565541852155265</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130691</v>
+        <v>1.718667665130878</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079786</v>
+        <v>3.783665644080197</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986339876</v>
+        <v>5.670733986340492</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950654599</v>
+        <v>7.035046950655365</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241031822</v>
+        <v>7.827845241032673</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960791957</v>
+        <v>7.954507960792822</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304086339</v>
+        <v>7.511216304087156</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337406775</v>
+        <v>6.410649337407472</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674350089</v>
+        <v>4.814130674350613</v>
       </c>
       <c r="R8" t="n">
-        <v>2.80034388742016</v>
+        <v>2.800343887420465</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927517</v>
+        <v>1.015865103927628</v>
       </c>
       <c r="T8" t="n">
-        <v>0.195148633787941</v>
+        <v>0.1951486337879622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221138839</v>
+        <v>0.003566394221139227</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064734</v>
+        <v>0.02385236418064994</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224815152</v>
+        <v>0.2303636224815402</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141143932</v>
+        <v>0.8212327141144825</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909318</v>
+        <v>2.253525336909563</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85163373701269</v>
+        <v>3.851633737013108</v>
       </c>
       <c r="L9" t="n">
-        <v>5.17899688053924</v>
+        <v>5.178996880539803</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082087704</v>
+        <v>6.043645082088362</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383983363</v>
+        <v>6.203602383984038</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209243756</v>
+        <v>5.675084209244373</v>
       </c>
       <c r="P9" t="n">
-        <v>4.55475540217993</v>
+        <v>4.554755402180425</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364533159</v>
+        <v>3.04473336453349</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847561</v>
+        <v>1.480938891847722</v>
       </c>
       <c r="S9" t="n">
-        <v>0.443047203092287</v>
+        <v>0.4430472030923351</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614918815</v>
+        <v>0.0961417661491986</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568905</v>
+        <v>0.001569234485569075</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087621139</v>
+        <v>0.01999702087621356</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946994068</v>
+        <v>0.1777916946994262</v>
       </c>
       <c r="I10" t="n">
-        <v>0.601364955077339</v>
+        <v>0.6013649550774044</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375948145</v>
+        <v>1.413789375948299</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243618013</v>
+        <v>2.323290243618266</v>
       </c>
       <c r="L10" t="n">
-        <v>2.97301163099601</v>
+        <v>2.973011630996333</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895572</v>
+        <v>3.134623917895913</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567356968</v>
+        <v>3.060089567357301</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005303043</v>
+        <v>2.826488005303351</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428329</v>
+        <v>2.418548779428592</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734392</v>
+        <v>1.674477811734574</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750340135</v>
+        <v>0.8991387750341113</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365427019</v>
+        <v>0.3484935365427398</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647108499</v>
+        <v>0.08544181647109428</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247895</v>
+        <v>0.001090746593248014</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861318</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764788</v>
+        <v>106.3449593764786</v>
       </c>
       <c r="K19" t="n">
-        <v>151.1226994788429</v>
+        <v>193.7066772858027</v>
       </c>
       <c r="L19" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147794</v>
       </c>
       <c r="M19" t="n">
-        <v>263.5265025701741</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>267.4420134092142</v>
+        <v>267.442013409214</v>
       </c>
       <c r="O19" t="n">
-        <v>233.7142479428932</v>
+        <v>191.1302701359387</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>194.353291917205</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.4540642462781</v>
+        <v>107.4540642462779</v>
       </c>
       <c r="R19" t="n">
-        <v>5.470631416088594</v>
+        <v>5.470631416088338</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764788</v>
+        <v>106.3449593764786</v>
       </c>
       <c r="K22" t="n">
-        <v>151.1226994788428</v>
+        <v>193.7066772858028</v>
       </c>
       <c r="L22" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147794</v>
       </c>
       <c r="M22" t="n">
-        <v>263.5265025701741</v>
+        <v>263.5265025701739</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>224.858035602259</v>
       </c>
       <c r="O22" t="n">
-        <v>233.7142479428932</v>
+        <v>233.7142479428931</v>
       </c>
       <c r="P22" t="n">
-        <v>194.3532919172052</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.4540642462781</v>
+        <v>107.4540642462779</v>
       </c>
       <c r="R22" t="n">
-        <v>5.470631416088594</v>
+        <v>5.470631416088366</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.3449593764789</v>
+        <v>106.3449593764785</v>
       </c>
       <c r="K25" t="n">
-        <v>193.706677285803</v>
+        <v>151.1226994788487</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147793</v>
       </c>
       <c r="M25" t="n">
-        <v>226.4131561793011</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>267.4420134092143</v>
+        <v>267.4420134092139</v>
       </c>
       <c r="O25" t="n">
-        <v>233.7142479428933</v>
+        <v>233.7142479428929</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106927</v>
+        <v>194.353291917205</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.4540642462782</v>
+        <v>107.4540642462779</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.470631416088338</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060946</v>
+        <v>93.00606408060931</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118628</v>
+        <v>242.4680417862124</v>
       </c>
       <c r="L28" t="n">
-        <v>367.1850196377413</v>
+        <v>367.1850196377412</v>
       </c>
       <c r="M28" t="n">
-        <v>395.061026861027</v>
+        <v>395.0610268610269</v>
       </c>
       <c r="N28" t="n">
-        <v>381.2773284094286</v>
+        <v>392.2845936350831</v>
       </c>
       <c r="O28" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901828</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126537</v>
+        <v>282.3847186126535</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.8218860054369</v>
+        <v>125.8218860054367</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060946</v>
+        <v>93.00606408060945</v>
       </c>
       <c r="K31" t="n">
         <v>253.4753070118628</v>
       </c>
       <c r="L31" t="n">
-        <v>356.1777544120867</v>
+        <v>356.1777544120873</v>
       </c>
       <c r="M31" t="n">
         <v>395.061026861027</v>
@@ -37005,7 +37005,7 @@
         <v>349.780777690183</v>
       </c>
       <c r="P31" t="n">
-        <v>282.3847186126537</v>
+        <v>282.3847186126536</v>
       </c>
       <c r="Q31" t="n">
         <v>125.8218860054369</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37221,19 +37221,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.332299818266868</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K34" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M34" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
         <v>173.0392293230782</v>
@@ -37242,13 +37242,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P34" t="n">
-        <v>176.2789413352289</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.7360003882471</v>
+        <v>99.46458104062491</v>
       </c>
       <c r="R34" t="n">
-        <v>8.752567558057635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37458,28 +37458,28 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>185.7171940801501</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>185.031508893286</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7360003882472</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37695,31 +37695,31 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266854</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>243.6959715091267</v>
       </c>
       <c r="M40" t="n">
         <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>185.0315088932869</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923305</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.33229981826701</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>11.94217529034286</v>
@@ -37941,25 +37941,25 @@
         <v>196.9886134277721</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567488</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>245.4521519881948</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511834</v>
+        <v>250.6999626455027</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848624</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882473</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057777</v>
+        <v>8.752567558057734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38172,31 +38172,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567488</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>246.7844518064618</v>
+        <v>246.7844518064655</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511834</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848624</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882473</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057777</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
